--- a/ProyectoPooDist/excels/USUARIOS.xlsx
+++ b/ProyectoPooDist/excels/USUARIOS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Nombre de Usuario</t>
   </si>
@@ -47,16 +47,16 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>usuario9Pineed</t>
-  </si>
-  <si>
-    <t>P@ssw0rd9</t>
-  </si>
-  <si>
-    <t>Kike</t>
-  </si>
-  <si>
-    <t>Romero</t>
+    <t>usuario11Pineed</t>
+  </si>
+  <si>
+    <t>P@ssw0rd11</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
   </si>
   <si>
     <t>USUARIO</t>
@@ -65,139 +65,118 @@
     <t>Masculino</t>
   </si>
   <si>
-    <t>09/09/1998</t>
-  </si>
-  <si>
-    <t>javier.romero@gmail.com</t>
-  </si>
-  <si>
-    <t>JUBILADO</t>
-  </si>
-  <si>
-    <t>usuario10Pineed</t>
-  </si>
-  <si>
-    <t>P@ssw0rd10</t>
-  </si>
-  <si>
-    <t>Paula</t>
-  </si>
-  <si>
-    <t>Torres</t>
+    <t>11/11/2000</t>
+  </si>
+  <si>
+    <t>daniel.ruiz@gmail.com</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>usuario12Pineed</t>
+  </si>
+  <si>
+    <t>P@ssw0rd12</t>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>12/12/2001</t>
+  </si>
+  <si>
+    <t>teresa.morales@gmail.com</t>
+  </si>
+  <si>
+    <t>BLOQUEADO</t>
+  </si>
+  <si>
+    <t>usuario13Pineed</t>
+  </si>
+  <si>
+    <t>P@ssw0rd13</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>13/01/2002</t>
+  </si>
+  <si>
+    <t>antonio.castro@gmail.com</t>
+  </si>
+  <si>
+    <t>usuario14Pineed</t>
+  </si>
+  <si>
+    <t>P@ssw0rd14</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Ortega</t>
+  </si>
+  <si>
+    <t>14/02/2003</t>
+  </si>
+  <si>
+    <t>isabel.ortega@gmail.com</t>
+  </si>
+  <si>
+    <t>usuario15Pineed</t>
+  </si>
+  <si>
+    <t>P@ssw0rd15</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Sánchez</t>
   </si>
   <si>
     <t>SECRETARIA</t>
   </si>
   <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>10/10/1999</t>
-  </si>
-  <si>
-    <t>paula.torres@gmail.com</t>
+    <t>15/03/2004</t>
+  </si>
+  <si>
+    <t>roberto.sanchez@gmail.com</t>
   </si>
   <si>
     <t>ENFERMO</t>
   </si>
   <si>
-    <t>usuario11Pineed</t>
-  </si>
-  <si>
-    <t>P@ssw0rd11</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Ruiz</t>
-  </si>
-  <si>
-    <t>11/11/2000</t>
-  </si>
-  <si>
-    <t>daniel.ruiz@gmail.com</t>
-  </si>
-  <si>
-    <t>ACTIVO</t>
-  </si>
-  <si>
-    <t>usuario12Pineed</t>
-  </si>
-  <si>
-    <t>P@ssw0rd12</t>
-  </si>
-  <si>
-    <t>Teresa</t>
-  </si>
-  <si>
-    <t>Morales</t>
-  </si>
-  <si>
-    <t>ADMINISTRADOR</t>
-  </si>
-  <si>
-    <t>12/12/2001</t>
-  </si>
-  <si>
-    <t>teresa.morales@gmail.com</t>
-  </si>
-  <si>
-    <t>BLOQUEADO</t>
-  </si>
-  <si>
-    <t>usuario13Pineed</t>
-  </si>
-  <si>
-    <t>P@ssw0rd13</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <t>13/01/2002</t>
-  </si>
-  <si>
-    <t>antonio.castro@gmail.com</t>
-  </si>
-  <si>
-    <t>usuario14Pineed</t>
-  </si>
-  <si>
-    <t>P@ssw0rd14</t>
-  </si>
-  <si>
-    <t>Isabel</t>
-  </si>
-  <si>
-    <t>Ortega</t>
-  </si>
-  <si>
-    <t>14/02/2003</t>
-  </si>
-  <si>
-    <t>isabel.ortega@gmail.com</t>
-  </si>
-  <si>
-    <t>usuario15Pineed</t>
-  </si>
-  <si>
-    <t>P@ssw0rd15</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>Sánchez</t>
-  </si>
-  <si>
-    <t>15/03/2004</t>
-  </si>
-  <si>
-    <t>roberto.sanchez@gmail.com</t>
+    <t>11</t>
+  </si>
+  <si>
+    <t>18/10/2024</t>
+  </si>
+  <si>
+    <t>121@gmail.com</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>19/10/2024</t>
+  </si>
+  <si>
+    <t>12@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -303,13 +282,13 @@
         <v>16</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>2.222222222222E12</v>
+        <v>4.444444444444E12</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>17</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>4.7864884E7</v>
+        <v>6.7367363E7</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>18</v>
@@ -338,13 +317,13 @@
         <v>25</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>3.333333333333E12</v>
+        <v>5.555555555555E12</v>
       </c>
       <c r="H3" t="s" s="0">
         <v>26</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>4.7847874E7</v>
+        <v>6.7373673E7</v>
       </c>
       <c r="J3" t="s" s="0">
         <v>27</v>
@@ -373,159 +352,159 @@
         <v>16</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>4.444444444444E12</v>
+        <v>6.666666666666E12</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>33</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>6.7367363E7</v>
+        <v>3.2521321E7</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>34</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="D5" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="D5" t="s" s="0">
-        <v>39</v>
-      </c>
       <c r="E5" t="s" s="0">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s" s="0">
         <v>25</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>5.555555555555E12</v>
+        <v>7.777777777777E12</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>6.7373673E7</v>
+        <v>5.3423423E7</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K5" t="s" s="0">
-        <v>43</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="E6" t="s" s="0">
         <v>45</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>15</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>16</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>6.666666666666E12</v>
+        <v>8.888888888888E12</v>
       </c>
       <c r="H6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="I6" t="n" s="0">
+        <v>2.1321321E7</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="K6" t="s" s="0">
         <v>48</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>3.2521321E7</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>49</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s" s="0">
         <v>15</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>7.777777777777E12</v>
+        <v>1.122112211221E12</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>5.3423423E7</v>
+        <v>1.1221122E7</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s" s="0">
         <v>16</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>8.888888888888E12</v>
+        <v>1.212121212121E12</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>2.1321321E7</v>
+        <v>1.2121212E7</v>
       </c>
       <c r="J8" t="s" s="0">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="K8" t="s" s="0">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/USUARIOS.xlsx
+++ b/ProyectoPooDist/excels/USUARIOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80B0B924-ED3C-4C71-B751-623562232843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE3A70D-B28F-4714-8C9F-CC6A88C6CA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Nombre de Usuario</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Daniel</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>EN VACACIONES</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Teresa</t>
   </si>
   <si>
@@ -103,9 +97,6 @@
     <t>BLOQUEADO</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Antonio</t>
   </si>
   <si>
@@ -121,9 +112,6 @@
     <t>ACTIVO</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Isabel</t>
   </si>
   <si>
@@ -136,9 +124,6 @@
     <t>isabel.ortega@gmail.com</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>Roberto</t>
   </si>
   <si>
@@ -155,16 +140,52 @@
   </si>
   <si>
     <t>ENFERMO</t>
+  </si>
+  <si>
+    <t>csgoisgoodgames123</t>
+  </si>
+  <si>
+    <t>csgoisgoodgames124</t>
+  </si>
+  <si>
+    <t>csgoisgoodgames125</t>
+  </si>
+  <si>
+    <t>csgoisgoodgames126</t>
+  </si>
+  <si>
+    <t>csgoisgoodgames127</t>
+  </si>
+  <si>
+    <t>josegonzalezcoradopineed</t>
+  </si>
+  <si>
+    <t>javiergonzalezcoradopineed</t>
+  </si>
+  <si>
+    <t>davidgonzalezcoradopineed</t>
+  </si>
+  <si>
+    <t>luisagonzalezcoradopineed</t>
+  </si>
+  <si>
+    <t>silviagonzalezcoradopineed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -529,7 +550,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,180 +592,181 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
       </c>
       <c r="G2">
         <v>4444444444444</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2">
         <v>67367363</v>
       </c>
       <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
       </c>
       <c r="G3">
         <v>5555555555555</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3">
         <v>67373673</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
       </c>
       <c r="G4">
         <v>6666666666666</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I4">
         <v>32521321</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G5">
         <v>7777777777777</v>
       </c>
       <c r="H5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I5">
         <v>53423423</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>8888888888888</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I6">
         <v>21321321</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ProyectoPooDist/excels/USUARIOS.xlsx
+++ b/ProyectoPooDist/excels/USUARIOS.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AA4396-0C2A-4B67-BD53-399CA5BF27CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Usuarios" r:id="rId3" sheetId="1"/>
+    <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Nombre de Usuario</t>
   </si>
@@ -47,12 +55,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>josegonzalezcoradopineed</t>
-  </si>
-  <si>
-    <t>csgoisgoodgames123</t>
-  </si>
-  <si>
     <t>Daniel</t>
   </si>
   <si>
@@ -74,10 +76,7 @@
     <t>EN VACACIONES</t>
   </si>
   <si>
-    <t>javiergonzalezcoradopineed</t>
-  </si>
-  <si>
-    <t>csgoisgoodgames124</t>
+    <t>1</t>
   </si>
   <si>
     <t>Teresa</t>
@@ -125,7 +124,7 @@
     <t>luisagonzalezcoradopineed</t>
   </si>
   <si>
-    <t>csgoisgoodgames126</t>
+    <t>12312##AApineed</t>
   </si>
   <si>
     <t>Isabel</t>
@@ -138,12 +137,6 @@
   </si>
   <si>
     <t>isabel.ortega@gmail.com</t>
-  </si>
-  <si>
-    <t>silviagonzalezcoradopineed</t>
-  </si>
-  <si>
-    <t>csgoisgoodgames127</t>
   </si>
   <si>
     <t>Roberto</t>
@@ -167,13 +160,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -183,7 +175,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -201,228 +193,558 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="G2">
+        <v>4444444444444</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="I2">
+        <v>67367363</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="n" s="0">
-        <v>4.444444444444E12</v>
-      </c>
-      <c r="H2" t="s" s="0">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="n" s="0">
-        <v>6.7367363E7</v>
-      </c>
-      <c r="J2" t="s" s="0">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3">
+        <v>5555555555555</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>67373673</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s" s="0">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>6666666666666</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>32521321</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s" s="0">
+      <c r="G5">
+        <v>7777777777777</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5">
+        <v>53423423</v>
+      </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="n" s="0">
-        <v>5.555555555555E12</v>
-      </c>
-      <c r="H3" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="I3" t="n" s="0">
-        <v>6.7373673E7</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>28</v>
-      </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="G4" t="n" s="0">
-        <v>6.666666666666E12</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>3.2521321E7</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>34</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="D5" t="s" s="0">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G5" t="n" s="0">
-        <v>7.777777777777E12</v>
-      </c>
-      <c r="H5" t="s" s="0">
+      <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="n" s="0">
-        <v>5.3423423E7</v>
-      </c>
-      <c r="J5" t="s" s="0">
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="K5" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>8888888888888</v>
+      </c>
+      <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="I6">
+        <v>21321321</v>
+      </c>
+      <c r="J6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="K6" t="s">
         <v>44</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>46</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>16</v>
-      </c>
-      <c r="G6" t="n" s="0">
-        <v>8.888888888888E12</v>
-      </c>
-      <c r="H6" t="s" s="0">
-        <v>47</v>
-      </c>
-      <c r="I6" t="n" s="0">
-        <v>2.1321321E7</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ProyectoPooDist/excels/USUARIOS.xlsx
+++ b/ProyectoPooDist/excels/USUARIOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AA4396-0C2A-4B67-BD53-399CA5BF27CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3C4FCA-DB9F-420D-A02A-A2C519661718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Nombre de Usuario</t>
   </si>
@@ -55,106 +55,82 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Ruiz</t>
-  </si>
-  <si>
-    <t>USUARIO</t>
+    <t>saragonzalezcoradopineed</t>
+  </si>
+  <si>
+    <t>1234##AApineed</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
   </si>
   <si>
     <t>Masculino</t>
   </si>
   <si>
-    <t>11/11/2000</t>
-  </si>
-  <si>
-    <t>daniel.ruiz@gmail.com</t>
-  </si>
-  <si>
-    <t>EN VACACIONES</t>
+    <t>13/01/2002</t>
+  </si>
+  <si>
+    <t>antonio.castro@gmail.com</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>davidganzalezcoradopineed</t>
+  </si>
+  <si>
+    <t>1000##AApineed</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Ortega</t>
+  </si>
+  <si>
+    <t>SECRETARIA</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>14/02/2003</t>
+  </si>
+  <si>
+    <t>isabel.ortega@gmail.com</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Teresa</t>
-  </si>
-  <si>
-    <t>Morales</t>
-  </si>
-  <si>
-    <t>ADMINISTRADOR</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>12/12/2001</t>
-  </si>
-  <si>
-    <t>teresa.morales@gmail.com</t>
-  </si>
-  <si>
-    <t>ACTIVO</t>
-  </si>
-  <si>
-    <t>davidgonzalezcoradopineed</t>
-  </si>
-  <si>
-    <t>csgoisgoodgames125</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <t>13/01/2002</t>
-  </si>
-  <si>
-    <t>antonio.castro@gmail.com</t>
-  </si>
-  <si>
-    <t>BLOQUEADO</t>
-  </si>
-  <si>
-    <t>luisagonzalezcoradopineed</t>
-  </si>
-  <si>
-    <t>12312##AApineed</t>
-  </si>
-  <si>
-    <t>Isabel</t>
-  </si>
-  <si>
-    <t>Ortega</t>
-  </si>
-  <si>
-    <t>14/02/2003</t>
-  </si>
-  <si>
-    <t>isabel.ortega@gmail.com</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>Sánchez</t>
-  </si>
-  <si>
-    <t>SECRETARIA</t>
-  </si>
-  <si>
-    <t>15/03/2004</t>
-  </si>
-  <si>
-    <t>roberto.sanchez@gmail.com</t>
-  </si>
-  <si>
-    <t>ENFERMO</t>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>González</t>
+  </si>
+  <si>
+    <t>meme.gonzalez@gmail.com</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Corado</t>
+  </si>
+  <si>
+    <t>david.corado@gmail.com</t>
+  </si>
+  <si>
+    <t>memeganzalezcoradopineed</t>
   </si>
 </sst>
 </file>
@@ -526,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,99 +546,99 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>4444444444444</v>
+        <v>8498489595912</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2">
-        <v>67367363</v>
+        <v>32521321</v>
       </c>
       <c r="J2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>4898949848942</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3">
+        <v>53423423</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>5555555555555</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3">
-        <v>67373673</v>
-      </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4">
-        <v>6666666666666</v>
+        <v>1515565648484</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="I4">
         <v>32521321</v>
@@ -671,77 +647,42 @@
         <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G5">
-        <v>7777777777777</v>
+        <v>1981989848591</v>
       </c>
       <c r="H5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I5">
         <v>53423423</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>8888888888888</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>21321321</v>
-      </c>
-      <c r="J6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/USUARIOS.xlsx
+++ b/ProyectoPooDist/excels/USUARIOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3C4FCA-DB9F-420D-A02A-A2C519661718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB8135F-CAB7-404B-A78F-DA59E46BFDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t>Nombre de Usuario</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>david.corado@gmail.com</t>
-  </si>
-  <si>
-    <t>memeganzalezcoradopineed</t>
   </si>
 </sst>
 </file>
@@ -505,7 +502,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,8 +613,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>36</v>
+      <c r="A4">
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
@@ -651,8 +648,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
+      <c r="A5">
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>

--- a/ProyectoPooDist/excels/USUARIOS.xlsx
+++ b/ProyectoPooDist/excels/USUARIOS.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52931101-F914-4EF1-A946-70D1C94A8F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Usuarios" r:id="rId3" sheetId="1"/>
+    <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>Nombre de Usuario</t>
   </si>
@@ -65,46 +73,49 @@
     <t>Masculino</t>
   </si>
   <si>
+    <t>31/01/2002</t>
+  </si>
+  <si>
+    <t>antonio.castro@gmail.com</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>davidganzalezcoradopineed</t>
+  </si>
+  <si>
+    <t>1000##AApineed</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Ortega</t>
+  </si>
+  <si>
+    <t>SECRETARIA</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>14/02/2003</t>
+  </si>
+  <si>
+    <t>isabel.ortega@gmail.com</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>González</t>
+  </si>
+  <si>
     <t>13/01/2002</t>
-  </si>
-  <si>
-    <t>antonio.castro@gmail.com</t>
-  </si>
-  <si>
-    <t>ACTIVO</t>
-  </si>
-  <si>
-    <t>davidganzalezcoradopineed</t>
-  </si>
-  <si>
-    <t>1000##AApineed</t>
-  </si>
-  <si>
-    <t>Isabel</t>
-  </si>
-  <si>
-    <t>Ortega</t>
-  </si>
-  <si>
-    <t>SECRETARIA</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>14/02/2003</t>
-  </si>
-  <si>
-    <t>isabel.ortega@gmail.com</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>González</t>
   </si>
   <si>
     <t>meme.gonzalez@gmail.com</t>
@@ -125,13 +136,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -141,7 +151,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -159,193 +169,523 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="F2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="n" s="0">
-        <v>8.498489595912E12</v>
-      </c>
-      <c r="H2" t="s" s="0">
+      <c r="G2">
+        <v>8498489595912</v>
+      </c>
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="n" s="0">
-        <v>3.2521321E7</v>
-      </c>
-      <c r="J2" t="s" s="0">
+      <c r="I2">
+        <v>32521321</v>
+      </c>
+      <c r="J2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s" s="0">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s" s="0">
+      <c r="F3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="n" s="0">
-        <v>4.898949848942E12</v>
-      </c>
-      <c r="H3" t="s" s="0">
+      <c r="G3">
+        <v>4898949848942</v>
+      </c>
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="n" s="0">
-        <v>5.3423423E7</v>
-      </c>
-      <c r="J3" t="s" s="0">
+      <c r="I3">
+        <v>53423423</v>
+      </c>
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s" s="0">
+      <c r="K3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s" s="0">
+      <c r="B4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s" s="0">
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s" s="0">
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="G4" t="n" s="0">
-        <v>1.515565648484E12</v>
-      </c>
-      <c r="H4" t="s" s="0">
-        <v>17</v>
-      </c>
-      <c r="I4" t="n" s="0">
-        <v>3.2521321E7</v>
-      </c>
-      <c r="J4" t="s" s="0">
+      <c r="G4">
+        <v>1515565648484</v>
+      </c>
+      <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="K4" t="s" s="0">
+      <c r="I4">
+        <v>32521321</v>
+      </c>
+      <c r="J4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s" s="0">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s" s="0">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s" s="0">
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="n" s="0">
-        <v>1.981989848591E12</v>
-      </c>
-      <c r="H5" t="s" s="0">
+      <c r="G5">
+        <v>1981989848591</v>
+      </c>
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="I5" t="n" s="0">
-        <v>5.3423423E7</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="K5" t="s" s="0">
+      <c r="I5">
+        <v>53423423</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ProyectoPooDist/excels/USUARIOS.xlsx
+++ b/ProyectoPooDist/excels/USUARIOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52931101-F914-4EF1-A946-70D1C94A8F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C6C211-27DA-4DFD-8E00-8D059B8E0250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Nombre de Usuario</t>
   </si>
@@ -55,15 +55,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>saragonzalezcoradopineed</t>
-  </si>
-  <si>
-    <t>1234##AApineed</t>
-  </si>
-  <si>
-    <t>Deyna</t>
-  </si>
-  <si>
     <t>Castro</t>
   </si>
   <si>
@@ -73,64 +64,70 @@
     <t>Masculino</t>
   </si>
   <si>
-    <t>31/01/2002</t>
-  </si>
-  <si>
-    <t>antonio.castro@gmail.com</t>
-  </si>
-  <si>
     <t>ACTIVO</t>
   </si>
   <si>
-    <t>davidganzalezcoradopineed</t>
-  </si>
-  <si>
-    <t>1000##AApineed</t>
-  </si>
-  <si>
-    <t>Isabel</t>
-  </si>
-  <si>
-    <t>Ortega</t>
-  </si>
-  <si>
     <t>SECRETARIA</t>
   </si>
   <si>
     <t>Femenino</t>
   </si>
   <si>
-    <t>14/02/2003</t>
-  </si>
-  <si>
-    <t>isabel.ortega@gmail.com</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>González</t>
-  </si>
-  <si>
-    <t>13/01/2002</t>
-  </si>
-  <si>
-    <t>meme.gonzalez@gmail.com</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Corado</t>
-  </si>
-  <si>
-    <t>david.corado@gmail.com</t>
+    <t>Miguel</t>
+  </si>
+  <si>
+    <t>García</t>
+  </si>
+  <si>
+    <t>miguel.garcia@gmail.com</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Medina</t>
+  </si>
+  <si>
+    <t>patricia.medina@gmail.com</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>rosa.rivera@gmail.com</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Ruiz</t>
+  </si>
+  <si>
+    <t>julia.ruiz@gmail.com</t>
+  </si>
+  <si>
+    <t>Carolina</t>
+  </si>
+  <si>
+    <t>carolina.castro@gmail.com</t>
+  </si>
+  <si>
+    <t>miguel.garcia&amp;pineed</t>
+  </si>
+  <si>
+    <t>patricia.medina&amp;pineed</t>
+  </si>
+  <si>
+    <t>rosa.rivera&amp;pineed</t>
+  </si>
+  <si>
+    <t>julia.ruiz&amp;pineed</t>
+  </si>
+  <si>
+    <t>carolina.castro&amp;pineed</t>
   </si>
 </sst>
 </file>
@@ -166,8 +163,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,13 +508,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -545,147 +554,183 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2">
+        <v>8012345678900</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8123450000000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>31168</v>
+      </c>
+      <c r="I2">
+        <v>33664538</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7987654321010</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2">
+        <v>7234560000000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>32942</v>
+      </c>
+      <c r="I3">
+        <v>20115747</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6234567890120</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2">
+        <v>9456780000000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>31943</v>
+      </c>
+      <c r="I4">
+        <v>74767823</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1678901234560</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2890120000000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>32538</v>
+      </c>
+      <c r="I5">
+        <v>78610529</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8890123456780</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2012340000000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>30205</v>
+      </c>
+      <c r="I6">
+        <v>32798897</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2">
-        <v>8498489595912</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2">
-        <v>32521321</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>4898949848942</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3">
-        <v>53423423</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>1515565648484</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4">
-        <v>32521321</v>
-      </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>1981989848591</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5">
-        <v>53423423</v>
-      </c>
-      <c r="J5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ProyectoPooDist/excels/USUARIOS.xlsx
+++ b/ProyectoPooDist/excels/USUARIOS.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C6C211-27DA-4DFD-8E00-8D059B8E0250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B2EFC3-41FE-49CD-9074-6A6775A0C6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Nombre de Usuario</t>
   </si>
@@ -128,12 +128,28 @@
   </si>
   <si>
     <t>carolina.castro&amp;pineed</t>
+  </si>
+  <si>
+    <t>ENFERMO</t>
+  </si>
+  <si>
+    <t>EN VACACIONES</t>
+  </si>
+  <si>
+    <t>JUBILADO</t>
+  </si>
+  <si>
+    <t>BLOQUEADO</t>
+  </si>
+  <si>
+    <t>INACTIVO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -508,58 +524,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" t="s" s="0">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>31</v>
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>8012345678900</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -579,7 +596,7 @@
       <c r="H2" s="3">
         <v>31168</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0">
         <v>33664538</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -588,8 +605,11 @@
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L2" t="b" s="0">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -614,17 +634,20 @@
       <c r="H3" s="3">
         <v>32942</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="0">
         <v>20115747</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
+      </c>
+      <c r="L3" t="b" s="0">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -649,17 +672,20 @@
       <c r="H4" s="3">
         <v>31943</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="0">
         <v>74767823</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
+      </c>
+      <c r="L4" t="b" s="0">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
@@ -684,17 +710,17 @@
       <c r="H5" s="3">
         <v>32538</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="0">
         <v>78610529</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>35</v>
       </c>
@@ -719,13 +745,51 @@
       <c r="H6" s="3">
         <v>30205</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="0">
         <v>32798897</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="b" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8012345678900</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2">
+        <v>8123450000000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>31168</v>
+      </c>
+      <c r="I7" s="0">
+        <v>33664538</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/USUARIOS.xlsx
+++ b/ProyectoPooDist/excels/USUARIOS.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B2EFC3-41FE-49CD-9074-6A6775A0C6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4354D35D-2B09-4CB8-A259-4ADED298DA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Nombre de Usuario</t>
   </si>
@@ -139,17 +139,22 @@
     <t>JUBILADO</t>
   </si>
   <si>
-    <t>BLOQUEADO</t>
-  </si>
-  <si>
-    <t>INACTIVO</t>
+    <t>jose.gonzalez&amp;pineed</t>
+  </si>
+  <si>
+    <t>José</t>
+  </si>
+  <si>
+    <t>González</t>
+  </si>
+  <si>
+    <t>jose.gonzalez@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -524,54 +529,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.28515625"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.5703125"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="0">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="0">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="0">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="0">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="0">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="0">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="0">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -579,10 +584,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>12</v>
@@ -591,21 +596,21 @@
         <v>13</v>
       </c>
       <c r="G2" s="2">
-        <v>8123450000000</v>
+        <v>3256451010312</v>
       </c>
       <c r="H2" s="3">
         <v>31168</v>
       </c>
-      <c r="I2" s="0">
-        <v>33664538</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
+      <c r="I2">
+        <v>59596565</v>
+      </c>
+      <c r="J2" t="s">
+        <v>42</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="b" s="0">
+      <c r="L2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -634,7 +639,7 @@
       <c r="H3" s="3">
         <v>32942</v>
       </c>
-      <c r="I3" s="0">
+      <c r="I3">
         <v>20115747</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -643,7 +648,7 @@
       <c r="K3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="b" s="0">
+      <c r="L3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -672,7 +677,7 @@
       <c r="H4" s="3">
         <v>31943</v>
       </c>
-      <c r="I4" s="0">
+      <c r="I4">
         <v>74767823</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -681,7 +686,7 @@
       <c r="K4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="b" s="0">
+      <c r="L4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -710,7 +715,7 @@
       <c r="H5" s="3">
         <v>32538</v>
       </c>
-      <c r="I5" s="0">
+      <c r="I5">
         <v>78610529</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -718,6 +723,9 @@
       </c>
       <c r="K5" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
@@ -745,7 +753,7 @@
       <c r="H6" s="3">
         <v>30205</v>
       </c>
-      <c r="I6" s="0">
+      <c r="I6">
         <v>32798897</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -754,7 +762,7 @@
       <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L6" t="b" s="0">
+      <c r="L6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -783,7 +791,7 @@
       <c r="H7" s="3">
         <v>31168</v>
       </c>
-      <c r="I7" s="0">
+      <c r="I7">
         <v>33664538</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -791,6 +799,47 @@
       </c>
       <c r="K7" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3256451010312</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3256451010312</v>
+      </c>
+      <c r="H8" s="3">
+        <v>31168</v>
+      </c>
+      <c r="I8">
+        <v>59596565</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/USUARIOS.xlsx
+++ b/ProyectoPooDist/excels/USUARIOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94CC4A6-82E7-4588-BEA5-3F3232FEBAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD5FFA6-08CD-4062-B7E4-8A99B146477D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Nombre Usuario</t>
   </si>
@@ -58,7 +58,7 @@
     <t>jose.gonzalez&amp;pineed</t>
   </si>
   <si>
-    <t>3256451010312</t>
+    <t>9375847119455</t>
   </si>
   <si>
     <t>José</t>
@@ -85,7 +85,7 @@
     <t>patricia.medina&amp;pineed</t>
   </si>
   <si>
-    <t>7987654321010</t>
+    <t>6630177783950</t>
   </si>
   <si>
     <t>Patricia</t>
@@ -106,7 +106,7 @@
     <t>rosa.rivera&amp;pineed</t>
   </si>
   <si>
-    <t>6234567890120</t>
+    <t>2984797705615</t>
   </si>
   <si>
     <t>Rosa</t>
@@ -127,7 +127,7 @@
     <t>julia.ruiz&amp;pineed</t>
   </si>
   <si>
-    <t>1678901234560</t>
+    <t>6991634010529</t>
   </si>
   <si>
     <t>Julia</t>
@@ -145,7 +145,7 @@
     <t>carolina.castro&amp;pineed</t>
   </si>
   <si>
-    <t>8890123456780</t>
+    <t>2270770502250</t>
   </si>
   <si>
     <t>Carolina</t>
@@ -157,22 +157,7 @@
     <t>11/09/1982</t>
   </si>
   <si>
-    <t>carolina.castro@gmail.com</t>
-  </si>
-  <si>
-    <t>miguel.garcia&amp;pineed</t>
-  </si>
-  <si>
-    <t>8012345678900</t>
-  </si>
-  <si>
-    <t>Miguel</t>
-  </si>
-  <si>
-    <t>García</t>
-  </si>
-  <si>
-    <t>miguel.garcia@gmail.com</t>
+    <t>12@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -544,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,13 +592,13 @@
         <v>16</v>
       </c>
       <c r="G2">
-        <v>3256451010312</v>
+        <v>9375847119455</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
       </c>
       <c r="I2">
-        <v>59596565</v>
+        <v>22211124</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -642,13 +627,13 @@
         <v>24</v>
       </c>
       <c r="G3">
-        <v>7234560000000</v>
+        <v>6630177783950</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
       </c>
       <c r="I3">
-        <v>20115747</v>
+        <v>99901235</v>
       </c>
       <c r="J3" t="s">
         <v>26</v>
@@ -677,13 +662,13 @@
         <v>24</v>
       </c>
       <c r="G4">
-        <v>9456780000000</v>
+        <v>2984797705615</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
       </c>
       <c r="I4">
-        <v>74767823</v>
+        <v>10123478</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
@@ -712,13 +697,13 @@
         <v>24</v>
       </c>
       <c r="G5">
-        <v>1678901234560</v>
+        <v>6991634010529</v>
       </c>
       <c r="H5" t="s">
         <v>38</v>
       </c>
       <c r="I5">
-        <v>78610529</v>
+        <v>21234589</v>
       </c>
       <c r="J5" t="s">
         <v>39</v>
@@ -747,53 +732,18 @@
         <v>24</v>
       </c>
       <c r="G6">
-        <v>2012340000000</v>
+        <v>2270770502250</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
       </c>
       <c r="I6">
-        <v>32798897</v>
+        <v>32345690</v>
       </c>
       <c r="J6" t="s">
         <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>8123450000000</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7">
-        <v>33664538</v>
-      </c>
-      <c r="J7" t="s">
-        <v>50</v>
-      </c>
-      <c r="K7" t="s">
         <v>19</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/USUARIOS.xlsx
+++ b/ProyectoPooDist/excels/USUARIOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD5FFA6-08CD-4062-B7E4-8A99B146477D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378AE89A-FA11-4625-8A50-F8EE1F1CAE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Nombre Usuario</t>
   </si>
@@ -58,9 +58,6 @@
     <t>jose.gonzalez&amp;pineed</t>
   </si>
   <si>
-    <t>9375847119455</t>
-  </si>
-  <si>
     <t>José</t>
   </si>
   <si>
@@ -104,9 +101,6 @@
   </si>
   <si>
     <t>rosa.rivera&amp;pineed</t>
-  </si>
-  <si>
-    <t>2984797705615</t>
   </si>
   <si>
     <t>Rosa</t>
@@ -532,10 +526,13 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -576,175 +573,175 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>9375847119455</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
       </c>
       <c r="G2">
         <v>9375847119455</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2">
         <v>22211124</v>
       </c>
       <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
       </c>
       <c r="G3">
         <v>6630177783950</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I3">
         <v>99901235</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>2984797705615</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4">
         <v>2984797705615</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4">
         <v>10123478</v>
       </c>
       <c r="J4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5">
         <v>6991634010529</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I5">
         <v>21234589</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
-      </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>2270770502250</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I6">
         <v>32345690</v>
       </c>
       <c r="J6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/ProyectoPooDist/excels/USUARIOS.xlsx
+++ b/ProyectoPooDist/excels/USUARIOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programacion 3\proyecto\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378AE89A-FA11-4625-8A50-F8EE1F1CAE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869ADA38-3389-4B66-B015-EDF723C2A3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="1980" windowWidth="22812" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>Nombre Usuario</t>
   </si>
@@ -136,12 +136,6 @@
     <t>julia.ruiz@gmail.com</t>
   </si>
   <si>
-    <t>carolina.castro&amp;pineed</t>
-  </si>
-  <si>
-    <t>2270770502250</t>
-  </si>
-  <si>
     <t>Carolina</t>
   </si>
   <si>
@@ -152,6 +146,9 @@
   </si>
   <si>
     <t>12@gmail.com</t>
+  </si>
+  <si>
+    <t>PILOTO</t>
   </si>
 </sst>
 </file>
@@ -523,18 +520,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +566,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -604,7 +601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -639,7 +636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -674,7 +671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -709,18 +706,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -732,19 +729,55 @@
         <v>2270770502250</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I6">
         <v>32345690</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>2270770502250</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7">
+        <v>32345690</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ProyectoPooDist/excels/USUARIOS.xlsx
+++ b/ProyectoPooDist/excels/USUARIOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programacion 3\proyecto\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869ADA38-3389-4B66-B015-EDF723C2A3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B26538D-7CF7-458A-BE2E-2802232AF4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="1980" windowWidth="22812" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t>Nombre Usuario</t>
   </si>
@@ -520,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,22 +708,22 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G6">
         <v>2270770502250</v>
@@ -743,22 +743,22 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="G7">
         <v>2270770502250</v>
@@ -773,6 +773,41 @@
         <v>41</v>
       </c>
       <c r="K7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>2270770502250</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8">
+        <v>32345690</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" t="s">
         <v>18</v>
       </c>
     </row>

--- a/ProyectoPooDist/excels/USUARIOS.xlsx
+++ b/ProyectoPooDist/excels/USUARIOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programacion 3\proyecto\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joseg\Downloads\PROYECTO CINDY\Proyecto-Poo-Dist\ProyectoPooDist\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B26538D-7CF7-458A-BE2E-2802232AF4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF45664-61F5-43E7-B319-388A124B0036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="1980" windowWidth="22812" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuarios" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Nombre Usuario</t>
   </si>
@@ -55,100 +55,58 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>jose.gonzalez&amp;pineed</t>
-  </si>
-  <si>
-    <t>José</t>
+    <t>SILVIA</t>
+  </si>
+  <si>
+    <t>CORADO</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>10/03/1990</t>
+  </si>
+  <si>
+    <t>memegonzalezcorado@gmail.com</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>SECRETARIA</t>
+  </si>
+  <si>
+    <t>15/06/1987</t>
+  </si>
+  <si>
+    <t>rosa.rivera@gmail.com</t>
+  </si>
+  <si>
+    <t>Laura</t>
   </si>
   <si>
     <t>González</t>
   </si>
   <si>
-    <t>ADMINISTRADOR</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>01/05/1985</t>
-  </si>
-  <si>
-    <t>jose.gonzalez@gmail.com</t>
-  </si>
-  <si>
-    <t>ACTIVO</t>
-  </si>
-  <si>
-    <t>patricia.medina&amp;pineed</t>
-  </si>
-  <si>
-    <t>6630177783950</t>
-  </si>
-  <si>
-    <t>Patricia</t>
-  </si>
-  <si>
-    <t>Medina</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>10/03/1990</t>
-  </si>
-  <si>
-    <t>patricia.medina@gmail.com</t>
+    <t>laura.gonzalez@gmail.com</t>
+  </si>
+  <si>
+    <t>silvia.corado&amp;pineed</t>
   </si>
   <si>
     <t>rosa.rivera&amp;pineed</t>
   </si>
   <si>
-    <t>Rosa</t>
-  </si>
-  <si>
-    <t>Rivera</t>
-  </si>
-  <si>
-    <t>SECRETARIA</t>
-  </si>
-  <si>
-    <t>15/06/1987</t>
-  </si>
-  <si>
-    <t>rosa.rivera@gmail.com</t>
-  </si>
-  <si>
-    <t>julia.ruiz&amp;pineed</t>
-  </si>
-  <si>
-    <t>6991634010529</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Ruiz</t>
-  </si>
-  <si>
-    <t>30/01/1989</t>
-  </si>
-  <si>
-    <t>julia.ruiz@gmail.com</t>
-  </si>
-  <si>
-    <t>Carolina</t>
-  </si>
-  <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <t>11/09/1982</t>
-  </si>
-  <si>
-    <t>12@gmail.com</t>
-  </si>
-  <si>
-    <t>PILOTO</t>
+    <t>laura.gonzalez&amp;pineed</t>
   </si>
 </sst>
 </file>
@@ -184,8 +142,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,18 +479,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -566,253 +527,112 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>1234567891011</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>9375847119455</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2">
+        <v>6630177783950</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
-        <v>9375847119455</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2">
+        <v>99901235</v>
+      </c>
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="I2">
-        <v>22211124</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>1111111111144</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>2984797705615</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3">
+        <v>10123478</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>1111111111144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3">
-        <v>6630177783950</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3">
-        <v>99901235</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="G4">
+        <v>2984797711111</v>
+      </c>
+      <c r="H4" s="1">
+        <v>36692</v>
+      </c>
+      <c r="I4">
+        <v>50505959</v>
+      </c>
+      <c r="J4" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>2984797705615</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4">
-        <v>2984797705615</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4">
-        <v>10123478</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
-      </c>
       <c r="K4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5">
-        <v>6991634010529</v>
-      </c>
-      <c r="H5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5">
-        <v>21234589</v>
-      </c>
-      <c r="J5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>2270770502250</v>
-      </c>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6">
-        <v>32345690</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7">
-        <v>2270770502250</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7">
-        <v>32345690</v>
-      </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8">
-        <v>2270770502250</v>
-      </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8">
-        <v>32345690</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ProyectoPooDist/excels/USUARIOS.xlsx
+++ b/ProyectoPooDist/excels/USUARIOS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>Nombre Usuario</t>
   </si>
@@ -173,7 +173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -316,7 +316,10 @@
         <v>32</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="L4" t="b" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="5">

--- a/ProyectoPooDist/excels/USUARIOS.xlsx
+++ b/ProyectoPooDist/excels/USUARIOS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Nombre Usuario</t>
   </si>
@@ -47,6 +47,54 @@
     <t>Estado</t>
   </si>
   <si>
+    <t>silvia.corado&amp;pineed</t>
+  </si>
+  <si>
+    <t>1234567891011</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Navichoque</t>
+  </si>
+  <si>
+    <t>ADMINISTRADOR</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>10/03/1990</t>
+  </si>
+  <si>
+    <t>meme14@gmail.com</t>
+  </si>
+  <si>
+    <t>ACTIVO</t>
+  </si>
+  <si>
+    <t>rosa.rivera&amp;pineed</t>
+  </si>
+  <si>
+    <t>3331111111144</t>
+  </si>
+  <si>
+    <t>Rosa</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>SECRETARIA</t>
+  </si>
+  <si>
+    <t>15/06/1987</t>
+  </si>
+  <si>
+    <t>ricardo.corado@gmai.com</t>
+  </si>
+  <si>
     <t>laura.gonzalez&amp;pineed</t>
   </si>
   <si>
@@ -59,58 +107,13 @@
     <t>González</t>
   </si>
   <si>
-    <t>SECRETARIA</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
     <t>15/06/2000</t>
   </si>
   <si>
-    <t>memegonzalezcorado@gmail.com</t>
-  </si>
-  <si>
-    <t>ACTIVO</t>
-  </si>
-  <si>
-    <t>rosa.rivera&amp;pineed</t>
-  </si>
-  <si>
-    <t>3331111111144</t>
-  </si>
-  <si>
-    <t>Rosa</t>
-  </si>
-  <si>
-    <t>Rivera</t>
-  </si>
-  <si>
-    <t>15/06/1987</t>
-  </si>
-  <si>
-    <t>rkikindragon@gmai.com</t>
-  </si>
-  <si>
-    <t>silvia.corado&amp;pineed</t>
-  </si>
-  <si>
-    <t>1234567891011</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Navichoque</t>
-  </si>
-  <si>
-    <t>ADMINISTRADOR</t>
-  </si>
-  <si>
-    <t>10/03/1990</t>
-  </si>
-  <si>
-    <t>memecorado14@gmail.com</t>
+    <t>meme.corado@gmail.com</t>
+  </si>
+  <si>
+    <t>INACTIVO</t>
   </si>
 </sst>
 </file>
@@ -216,13 +219,13 @@
         <v>16</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>2.984797711111E12</v>
+        <v>6.63017778395E12</v>
       </c>
       <c r="H2" t="s" s="0">
         <v>17</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>5.0505959E7</v>
+        <v>9.9901235E7</v>
       </c>
       <c r="J2" t="s" s="0">
         <v>18</v>
@@ -245,7 +248,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>16</v>
@@ -254,13 +257,13 @@
         <v>2.984797705615E12</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n" s="0">
         <v>1.0123478E7</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s" s="0">
         <v>19</v>
@@ -268,37 +271,37 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>16</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>6.63017778395E12</v>
+        <v>2.984797711111E12</v>
       </c>
       <c r="H4" t="s" s="0">
         <v>31</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>9.9901235E7</v>
+        <v>5.0505959E7</v>
       </c>
       <c r="J4" t="s" s="0">
         <v>32</v>
       </c>
       <c r="K4" t="s" s="0">
-        <v>19</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
